--- a/biology/Zoologie/Felis_silvestris_reyi/Felis_silvestris_reyi.xlsx
+++ b/biology/Zoologie/Felis_silvestris_reyi/Felis_silvestris_reyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Felis silvestris reyi est une sous-espèce de Chat sauvage (Felis silvestris) de la famille des Félins, dont la validité en tant que sous-espèce distincte est discutée. Ce chat sauvage de Corse est très proche du chat sarde qui est également issu vraisemblablement du Chat sauvage d'Afrique (F. s. lybica)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Felis silvestris reyi est une sous-espèce de Chat sauvage (Felis silvestris) de la famille des Félins, dont la validité en tant que sous-espèce distincte est discutée. Ce chat sauvage de Corse est très proche du chat sarde qui est également issu vraisemblablement du Chat sauvage d'Afrique (F. s. lybica).
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'occasion de ses recherches sur l'hypothétique « Lynx de Corse », une nouvelle espèce de Chat sauvage, Felis reyi, est décrite en 1929  par Louis Lavauden (1881-1935) et nommée ainsi en hommage à Monsieur Rey-Jouvin, professeur au Lycée de Bastia, qui lui avait apporté le crâne et la peau d'un félin de taille relativement faible (85 cm en tout), à queue plutôt courte[3].
-Cette nouvelle espèce est reléguée au rang de sous-espèce de Felis libyca par Pocock (1934) et Ellerman et Morrison-Scott (1951), c'est-à-dire Felis libyca reyi, puis de Felis sylvestris par Haltenorth (1957), c'est-à-dire Felis sylvestris reyi[4].
-Étant donné que la classification actuelle n'a pas clarifié le nombre de sous-espèces de Felis silvestris, dont l'une d'elles est Felis silvestris lybica, dont la présence est attestée en Corse[5], la validité du rang de sous-espèce pour reyi ne fait pas consensus, de même que pour le chat sarde (Felis silvestris sarda (it))[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'occasion de ses recherches sur l'hypothétique « Lynx de Corse », une nouvelle espèce de Chat sauvage, Felis reyi, est décrite en 1929  par Louis Lavauden (1881-1935) et nommée ainsi en hommage à Monsieur Rey-Jouvin, professeur au Lycée de Bastia, qui lui avait apporté le crâne et la peau d'un félin de taille relativement faible (85 cm en tout), à queue plutôt courte.
+Cette nouvelle espèce est reléguée au rang de sous-espèce de Felis libyca par Pocock (1934) et Ellerman et Morrison-Scott (1951), c'est-à-dire Felis libyca reyi, puis de Felis sylvestris par Haltenorth (1957), c'est-à-dire Felis sylvestris reyi.
+Étant donné que la classification actuelle n'a pas clarifié le nombre de sous-espèces de Felis silvestris, dont l'une d'elles est Felis silvestris lybica, dont la présence est attestée en Corse, la validité du rang de sous-espèce pour reyi ne fait pas consensus, de même que pour le chat sarde (Felis silvestris sarda (it)).
 </t>
         </is>
       </c>
